--- a/project/laliga2019/possession.xlsx
+++ b/project/laliga2019/possession.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53DB61-BF41-4273-BE28-52671BBC9A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C14BF-5C11-46B8-8D6F-9012DB0C973F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2EEAA1E2-5F8C-4006-8F44-3ED1B4063F37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EEAA1E2-5F8C-4006-8F44-3ED1B4063F37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Touches</t>
   </si>
@@ -78,15 +78,6 @@
     <t>Att</t>
   </si>
   <si>
-    <t>Succ%</t>
-  </si>
-  <si>
-    <t>#Pl</t>
-  </si>
-  <si>
-    <t>Megs</t>
-  </si>
-  <si>
     <t>TotDist</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
   </si>
   <si>
     <t>Rec</t>
-  </si>
-  <si>
-    <t>Rec%</t>
   </si>
   <si>
     <t>Marc-André ter Stegen</t>
@@ -307,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -472,17 +460,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -499,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,6 +533,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,16 +555,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,52 +870,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ABB3AD-FBD9-45B4-8828-3C6B8418F5BA}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="22" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="20" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25"/>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="27"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -984,43 +954,31 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="B3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="3">
         <v>27</v>
@@ -1055,41 +1013,31 @@
       <c r="N3" s="13">
         <v>0</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="12">
+        <v>929</v>
+      </c>
       <c r="P3" s="13">
-        <v>0</v>
+        <v>4103</v>
       </c>
       <c r="Q3" s="11">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="R3" s="12">
-        <v>929</v>
-      </c>
-      <c r="S3" s="13">
-        <v>4103</v>
-      </c>
-      <c r="T3" s="11">
-        <v>2550</v>
-      </c>
-      <c r="U3" s="12">
         <v>909</v>
       </c>
-      <c r="V3" s="13">
+      <c r="S3" s="11">
         <v>906</v>
       </c>
-      <c r="W3" s="11">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>27</v>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>32</v>
@@ -1124,43 +1072,31 @@
       <c r="N4" s="13">
         <v>9</v>
       </c>
-      <c r="O4" s="13">
-        <v>100</v>
+      <c r="O4" s="12">
+        <v>2084</v>
       </c>
       <c r="P4" s="13">
-        <v>9</v>
+        <v>13521</v>
       </c>
       <c r="Q4" s="11">
-        <v>0</v>
+        <v>8080</v>
       </c>
       <c r="R4" s="12">
-        <v>2084</v>
-      </c>
-      <c r="S4" s="13">
-        <v>13521</v>
-      </c>
-      <c r="T4" s="11">
-        <v>8080</v>
-      </c>
-      <c r="U4" s="12">
         <v>2211</v>
       </c>
-      <c r="V4" s="13">
+      <c r="S4" s="11">
         <v>2171</v>
       </c>
-      <c r="W4" s="11">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <v>32</v>
@@ -1195,43 +1131,31 @@
       <c r="N5" s="13">
         <v>275</v>
       </c>
-      <c r="O5" s="13">
-        <v>66.900000000000006</v>
+      <c r="O5" s="12">
+        <v>2227</v>
       </c>
       <c r="P5" s="13">
-        <v>194</v>
+        <v>14619</v>
       </c>
       <c r="Q5" s="11">
-        <v>9</v>
+        <v>9239</v>
       </c>
       <c r="R5" s="12">
-        <v>2227</v>
-      </c>
-      <c r="S5" s="13">
-        <v>14619</v>
-      </c>
-      <c r="T5" s="11">
-        <v>9239</v>
-      </c>
-      <c r="U5" s="12">
         <v>2616</v>
       </c>
-      <c r="V5" s="13">
+      <c r="S5" s="11">
         <v>2229</v>
       </c>
-      <c r="W5" s="11">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>31</v>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>28</v>
@@ -1266,43 +1190,31 @@
       <c r="N6" s="13">
         <v>37</v>
       </c>
-      <c r="O6" s="13">
-        <v>48.6</v>
+      <c r="O6" s="12">
+        <v>938</v>
       </c>
       <c r="P6" s="13">
-        <v>20</v>
+        <v>4279</v>
       </c>
       <c r="Q6" s="11">
-        <v>1</v>
+        <v>1804</v>
       </c>
       <c r="R6" s="12">
-        <v>938</v>
-      </c>
-      <c r="S6" s="13">
-        <v>4279</v>
-      </c>
-      <c r="T6" s="11">
-        <v>1804</v>
-      </c>
-      <c r="U6" s="12">
         <v>1491</v>
       </c>
-      <c r="V6" s="13">
+      <c r="S6" s="11">
         <v>1121</v>
       </c>
-      <c r="W6" s="11">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>33</v>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>31</v>
@@ -1337,43 +1249,31 @@
       <c r="N7" s="13">
         <v>27</v>
       </c>
-      <c r="O7" s="13">
-        <v>81.5</v>
+      <c r="O7" s="12">
+        <v>1910</v>
       </c>
       <c r="P7" s="13">
+        <v>6947</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>3414</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2254</v>
+      </c>
+      <c r="S7" s="11">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-      <c r="R7" s="12">
-        <v>1910</v>
-      </c>
-      <c r="S7" s="13">
-        <v>6947</v>
-      </c>
-      <c r="T7" s="11">
-        <v>3414</v>
-      </c>
-      <c r="U7" s="12">
-        <v>2254</v>
-      </c>
-      <c r="V7" s="13">
-        <v>2182</v>
-      </c>
-      <c r="W7" s="11">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="3">
         <v>24</v>
@@ -1408,43 +1308,31 @@
       <c r="N8" s="13">
         <v>9</v>
       </c>
-      <c r="O8" s="13">
-        <v>55.6</v>
+      <c r="O8" s="12">
+        <v>1771</v>
       </c>
       <c r="P8" s="13">
-        <v>5</v>
+        <v>9816</v>
       </c>
       <c r="Q8" s="11">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="R8" s="12">
-        <v>1771</v>
-      </c>
-      <c r="S8" s="13">
-        <v>9816</v>
-      </c>
-      <c r="T8" s="11">
-        <v>6000</v>
-      </c>
-      <c r="U8" s="12">
         <v>1858</v>
       </c>
-      <c r="V8" s="13">
+      <c r="S8" s="11">
         <v>1834</v>
       </c>
-      <c r="W8" s="11">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>36</v>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>27</v>
@@ -1479,43 +1367,31 @@
       <c r="N9" s="13">
         <v>25</v>
       </c>
-      <c r="O9" s="13">
-        <v>56</v>
+      <c r="O9" s="12">
+        <v>1743</v>
       </c>
       <c r="P9" s="13">
-        <v>16</v>
+        <v>8868</v>
       </c>
       <c r="Q9" s="11">
-        <v>1</v>
+        <v>5414</v>
       </c>
       <c r="R9" s="12">
-        <v>1743</v>
-      </c>
-      <c r="S9" s="13">
-        <v>8868</v>
-      </c>
-      <c r="T9" s="11">
-        <v>5414</v>
-      </c>
-      <c r="U9" s="12">
         <v>1997</v>
       </c>
-      <c r="V9" s="13">
+      <c r="S9" s="11">
         <v>1865</v>
       </c>
-      <c r="W9" s="11">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>38</v>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
@@ -1550,43 +1426,31 @@
       <c r="N10" s="13">
         <v>19</v>
       </c>
-      <c r="O10" s="13">
-        <v>52.6</v>
+      <c r="O10" s="12">
+        <v>1617</v>
       </c>
       <c r="P10" s="13">
-        <v>12</v>
+        <v>6405</v>
       </c>
       <c r="Q10" s="11">
-        <v>2</v>
+        <v>3327</v>
       </c>
       <c r="R10" s="12">
-        <v>1617</v>
-      </c>
-      <c r="S10" s="13">
-        <v>6405</v>
-      </c>
-      <c r="T10" s="11">
-        <v>3327</v>
-      </c>
-      <c r="U10" s="12">
         <v>1907</v>
       </c>
-      <c r="V10" s="13">
+      <c r="S10" s="11">
         <v>1762</v>
       </c>
-      <c r="W10" s="11">
-        <v>92.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>39</v>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>22</v>
@@ -1621,43 +1485,31 @@
       <c r="N11" s="13">
         <v>53</v>
       </c>
-      <c r="O11" s="13">
-        <v>71.7</v>
+      <c r="O11" s="12">
+        <v>1510</v>
       </c>
       <c r="P11" s="13">
-        <v>40</v>
+        <v>9514</v>
       </c>
       <c r="Q11" s="11">
-        <v>1</v>
+        <v>5126</v>
       </c>
       <c r="R11" s="12">
-        <v>1510</v>
-      </c>
-      <c r="S11" s="13">
-        <v>9514</v>
-      </c>
-      <c r="T11" s="11">
-        <v>5126</v>
-      </c>
-      <c r="U11" s="12">
         <v>1656</v>
       </c>
-      <c r="V11" s="13">
+      <c r="S11" s="11">
         <v>1520</v>
       </c>
-      <c r="W11" s="11">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>40</v>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
@@ -1692,43 +1544,31 @@
       <c r="N12" s="13">
         <v>68</v>
       </c>
-      <c r="O12" s="13">
-        <v>66.2</v>
+      <c r="O12" s="12">
+        <v>1453</v>
       </c>
       <c r="P12" s="13">
-        <v>46</v>
+        <v>8067</v>
       </c>
       <c r="Q12" s="11">
-        <v>1</v>
+        <v>4841</v>
       </c>
       <c r="R12" s="12">
-        <v>1453</v>
-      </c>
-      <c r="S12" s="13">
-        <v>8067</v>
-      </c>
-      <c r="T12" s="11">
-        <v>4841</v>
-      </c>
-      <c r="U12" s="12">
         <v>1508</v>
       </c>
-      <c r="V12" s="13">
+      <c r="S12" s="11">
         <v>1406</v>
       </c>
-      <c r="W12" s="11">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>41</v>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3">
         <v>32</v>
@@ -1763,43 +1603,31 @@
       <c r="N13" s="13">
         <v>52</v>
       </c>
-      <c r="O13" s="13">
-        <v>48.1</v>
+      <c r="O13" s="12">
+        <v>572</v>
       </c>
       <c r="P13" s="13">
-        <v>26</v>
+        <v>2529</v>
       </c>
       <c r="Q13" s="11">
-        <v>3</v>
+        <v>1529</v>
       </c>
       <c r="R13" s="12">
-        <v>572</v>
-      </c>
-      <c r="S13" s="13">
-        <v>2529</v>
-      </c>
-      <c r="T13" s="11">
-        <v>1529</v>
-      </c>
-      <c r="U13" s="12">
         <v>1146</v>
       </c>
-      <c r="V13" s="13">
+      <c r="S13" s="11">
         <v>777</v>
       </c>
-      <c r="W13" s="11">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>42</v>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>32</v>
@@ -1834,43 +1662,31 @@
       <c r="N14" s="13">
         <v>17</v>
       </c>
-      <c r="O14" s="13">
-        <v>52.9</v>
+      <c r="O14" s="12">
+        <v>1026</v>
       </c>
       <c r="P14" s="13">
-        <v>9</v>
+        <v>3382</v>
       </c>
       <c r="Q14" s="11">
-        <v>2</v>
+        <v>1709</v>
       </c>
       <c r="R14" s="12">
-        <v>1026</v>
-      </c>
-      <c r="S14" s="13">
-        <v>3382</v>
-      </c>
-      <c r="T14" s="11">
-        <v>1709</v>
-      </c>
-      <c r="U14" s="12">
         <v>1341</v>
       </c>
-      <c r="V14" s="13">
+      <c r="S14" s="11">
         <v>1180</v>
       </c>
-      <c r="W14" s="11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>43</v>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>31</v>
@@ -1905,43 +1721,31 @@
       <c r="N15" s="13">
         <v>17</v>
       </c>
-      <c r="O15" s="13">
-        <v>47.1</v>
+      <c r="O15" s="12">
+        <v>1170</v>
       </c>
       <c r="P15" s="13">
-        <v>10</v>
+        <v>4997</v>
       </c>
       <c r="Q15" s="11">
-        <v>2</v>
+        <v>2469</v>
       </c>
       <c r="R15" s="12">
-        <v>1170</v>
-      </c>
-      <c r="S15" s="13">
-        <v>4997</v>
-      </c>
-      <c r="T15" s="11">
-        <v>2469</v>
-      </c>
-      <c r="U15" s="12">
         <v>1414</v>
       </c>
-      <c r="V15" s="13">
+      <c r="S15" s="11">
         <v>1317</v>
       </c>
-      <c r="W15" s="11">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>44</v>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -1976,43 +1780,31 @@
       <c r="N16" s="13">
         <v>33</v>
       </c>
-      <c r="O16" s="13">
-        <v>87.9</v>
+      <c r="O16" s="12">
+        <v>999</v>
       </c>
       <c r="P16" s="13">
-        <v>29</v>
+        <v>5807</v>
       </c>
       <c r="Q16" s="11">
-        <v>1</v>
+        <v>2494</v>
       </c>
       <c r="R16" s="12">
-        <v>999</v>
-      </c>
-      <c r="S16" s="13">
-        <v>5807</v>
-      </c>
-      <c r="T16" s="11">
-        <v>2494</v>
-      </c>
-      <c r="U16" s="12">
         <v>1091</v>
       </c>
-      <c r="V16" s="13">
+      <c r="S16" s="11">
         <v>998</v>
       </c>
-      <c r="W16" s="11">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>45</v>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -2047,43 +1839,31 @@
       <c r="N17" s="13">
         <v>56</v>
       </c>
-      <c r="O17" s="13">
-        <v>41.1</v>
+      <c r="O17" s="12">
+        <v>590</v>
       </c>
       <c r="P17" s="13">
-        <v>26</v>
+        <v>4224</v>
       </c>
       <c r="Q17" s="11">
-        <v>1</v>
+        <v>2860</v>
       </c>
       <c r="R17" s="12">
-        <v>590</v>
-      </c>
-      <c r="S17" s="13">
-        <v>4224</v>
-      </c>
-      <c r="T17" s="11">
-        <v>2860</v>
-      </c>
-      <c r="U17" s="12">
         <v>702</v>
       </c>
-      <c r="V17" s="13">
+      <c r="S17" s="11">
         <v>600</v>
       </c>
-      <c r="W17" s="11">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>47</v>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
         <v>22</v>
@@ -2118,43 +1898,31 @@
       <c r="N18" s="13">
         <v>20</v>
       </c>
-      <c r="O18" s="13">
-        <v>55</v>
+      <c r="O18" s="12">
+        <v>693</v>
       </c>
       <c r="P18" s="13">
-        <v>12</v>
+        <v>3417</v>
       </c>
       <c r="Q18" s="11">
-        <v>2</v>
+        <v>2076</v>
       </c>
       <c r="R18" s="12">
-        <v>693</v>
-      </c>
-      <c r="S18" s="13">
-        <v>3417</v>
-      </c>
-      <c r="T18" s="11">
-        <v>2076</v>
-      </c>
-      <c r="U18" s="12">
         <v>737</v>
       </c>
-      <c r="V18" s="13">
+      <c r="S18" s="11">
         <v>696</v>
       </c>
-      <c r="W18" s="11">
-        <v>94.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>48</v>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3">
         <v>25</v>
@@ -2189,43 +1957,31 @@
       <c r="N19" s="13">
         <v>6</v>
       </c>
-      <c r="O19" s="13">
-        <v>66.7</v>
+      <c r="O19" s="12">
+        <v>683</v>
       </c>
       <c r="P19" s="13">
-        <v>4</v>
+        <v>4131</v>
       </c>
       <c r="Q19" s="11">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="R19" s="12">
-        <v>683</v>
-      </c>
-      <c r="S19" s="13">
-        <v>4131</v>
-      </c>
-      <c r="T19" s="11">
-        <v>2417</v>
-      </c>
-      <c r="U19" s="12">
         <v>676</v>
       </c>
-      <c r="V19" s="13">
+      <c r="S19" s="11">
         <v>666</v>
       </c>
-      <c r="W19" s="11">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>49</v>
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
@@ -2260,43 +2016,31 @@
       <c r="N20" s="13">
         <v>16</v>
       </c>
-      <c r="O20" s="13">
-        <v>87.5</v>
+      <c r="O20" s="12">
+        <v>390</v>
       </c>
       <c r="P20" s="13">
-        <v>15</v>
+        <v>2201</v>
       </c>
       <c r="Q20" s="11">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="R20" s="12">
-        <v>390</v>
-      </c>
-      <c r="S20" s="13">
-        <v>2201</v>
-      </c>
-      <c r="T20" s="11">
-        <v>988</v>
-      </c>
-      <c r="U20" s="12">
         <v>452</v>
       </c>
-      <c r="V20" s="13">
+      <c r="S20" s="11">
         <v>414</v>
       </c>
-      <c r="W20" s="11">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>50</v>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
         <v>21</v>
@@ -2331,43 +2075,31 @@
       <c r="N21" s="13">
         <v>22</v>
       </c>
-      <c r="O21" s="13">
-        <v>45.5</v>
+      <c r="O21" s="12">
+        <v>288</v>
       </c>
       <c r="P21" s="13">
-        <v>11</v>
+        <v>1846</v>
       </c>
       <c r="Q21" s="11">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="R21" s="12">
-        <v>288</v>
-      </c>
-      <c r="S21" s="13">
-        <v>1846</v>
-      </c>
-      <c r="T21" s="11">
-        <v>1078</v>
-      </c>
-      <c r="U21" s="12">
         <v>349</v>
       </c>
-      <c r="V21" s="13">
+      <c r="S21" s="11">
         <v>294</v>
       </c>
-      <c r="W21" s="11">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>51</v>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3">
         <v>28</v>
@@ -2402,43 +2134,31 @@
       <c r="N22" s="13">
         <v>8</v>
       </c>
-      <c r="O22" s="13">
-        <v>62.5</v>
+      <c r="O22" s="12">
+        <v>123</v>
       </c>
       <c r="P22" s="13">
-        <v>5</v>
+        <v>714</v>
       </c>
       <c r="Q22" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="R22" s="12">
-        <v>123</v>
-      </c>
-      <c r="S22" s="13">
-        <v>714</v>
-      </c>
-      <c r="T22" s="11">
-        <v>408</v>
-      </c>
-      <c r="U22" s="12">
         <v>193</v>
       </c>
-      <c r="V22" s="13">
+      <c r="S22" s="11">
         <v>142</v>
       </c>
-      <c r="W22" s="11">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>52</v>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
@@ -2473,43 +2193,31 @@
       <c r="N23" s="13">
         <v>31</v>
       </c>
-      <c r="O23" s="13">
-        <v>51.6</v>
+      <c r="O23" s="12">
+        <v>259</v>
       </c>
       <c r="P23" s="13">
-        <v>17</v>
+        <v>1926</v>
       </c>
       <c r="Q23" s="11">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="R23" s="12">
-        <v>259</v>
-      </c>
-      <c r="S23" s="13">
-        <v>1926</v>
-      </c>
-      <c r="T23" s="11">
-        <v>1228</v>
-      </c>
-      <c r="U23" s="12">
         <v>307</v>
       </c>
-      <c r="V23" s="13">
+      <c r="S23" s="11">
         <v>257</v>
       </c>
-      <c r="W23" s="11">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>53</v>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
         <v>20</v>
@@ -2544,43 +2252,31 @@
       <c r="N24" s="13">
         <v>1</v>
       </c>
-      <c r="O24" s="13">
-        <v>100</v>
+      <c r="O24" s="12">
+        <v>173</v>
       </c>
       <c r="P24" s="13">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="Q24" s="11">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="R24" s="12">
-        <v>173</v>
-      </c>
-      <c r="S24" s="13">
-        <v>744</v>
-      </c>
-      <c r="T24" s="11">
-        <v>457</v>
-      </c>
-      <c r="U24" s="12">
         <v>186</v>
       </c>
-      <c r="V24" s="13">
+      <c r="S24" s="11">
         <v>186</v>
       </c>
-      <c r="W24" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>54</v>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3">
         <v>26</v>
@@ -2615,43 +2311,31 @@
       <c r="N25" s="13">
         <v>11</v>
       </c>
-      <c r="O25" s="13">
-        <v>45.5</v>
+      <c r="O25" s="12">
+        <v>165</v>
       </c>
       <c r="P25" s="13">
-        <v>5</v>
+        <v>1010</v>
       </c>
       <c r="Q25" s="11">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="R25" s="12">
-        <v>165</v>
-      </c>
-      <c r="S25" s="13">
-        <v>1010</v>
-      </c>
-      <c r="T25" s="11">
-        <v>533</v>
-      </c>
-      <c r="U25" s="12">
         <v>187</v>
       </c>
-      <c r="V25" s="13">
+      <c r="S25" s="11">
         <v>167</v>
       </c>
-      <c r="W25" s="11">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>55</v>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>30</v>
@@ -2686,41 +2370,31 @@
       <c r="N26" s="13">
         <v>0</v>
       </c>
-      <c r="O26" s="13"/>
+      <c r="O26" s="12">
+        <v>33</v>
+      </c>
       <c r="P26" s="13">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="11">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R26" s="12">
         <v>33</v>
       </c>
-      <c r="S26" s="13">
-        <v>116</v>
-      </c>
-      <c r="T26" s="11">
-        <v>51</v>
-      </c>
-      <c r="U26" s="12">
+      <c r="S26" s="11">
         <v>33</v>
       </c>
-      <c r="V26" s="13">
-        <v>33</v>
-      </c>
-      <c r="W26" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>56</v>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <v>21</v>
@@ -2755,43 +2429,31 @@
       <c r="N27" s="13">
         <v>3</v>
       </c>
-      <c r="O27" s="13">
-        <v>66.7</v>
+      <c r="O27" s="12">
+        <v>131</v>
       </c>
       <c r="P27" s="13">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="Q27" s="11">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R27" s="12">
-        <v>131</v>
-      </c>
-      <c r="S27" s="13">
-        <v>596</v>
-      </c>
-      <c r="T27" s="11">
-        <v>250</v>
-      </c>
-      <c r="U27" s="12">
         <v>157</v>
       </c>
-      <c r="V27" s="13">
+      <c r="S27" s="11">
         <v>146</v>
       </c>
-      <c r="W27" s="11">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>57</v>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3">
         <v>20</v>
@@ -2826,43 +2488,31 @@
       <c r="N28" s="13">
         <v>5</v>
       </c>
-      <c r="O28" s="13">
-        <v>80</v>
+      <c r="O28" s="12">
+        <v>62</v>
       </c>
       <c r="P28" s="13">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="Q28" s="11">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R28" s="12">
-        <v>62</v>
-      </c>
-      <c r="S28" s="13">
-        <v>385</v>
-      </c>
-      <c r="T28" s="11">
-        <v>250</v>
-      </c>
-      <c r="U28" s="12">
         <v>63</v>
       </c>
-      <c r="V28" s="13">
+      <c r="S28" s="11">
         <v>59</v>
       </c>
-      <c r="W28" s="11">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>58</v>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>19</v>
@@ -2897,43 +2547,31 @@
       <c r="N29" s="13">
         <v>1</v>
       </c>
-      <c r="O29" s="13">
-        <v>0</v>
+      <c r="O29" s="12">
+        <v>43</v>
       </c>
       <c r="P29" s="13">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="11">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="R29" s="12">
-        <v>43</v>
-      </c>
-      <c r="S29" s="13">
-        <v>292</v>
-      </c>
-      <c r="T29" s="11">
-        <v>135</v>
-      </c>
-      <c r="U29" s="12">
         <v>45</v>
       </c>
-      <c r="V29" s="13">
+      <c r="S29" s="11">
         <v>44</v>
       </c>
-      <c r="W29" s="11">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>59</v>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4">
         <v>20</v>
@@ -2968,35 +2606,25 @@
       <c r="N30" s="16">
         <v>0</v>
       </c>
-      <c r="O30" s="16"/>
+      <c r="O30" s="15">
+        <v>8</v>
+      </c>
       <c r="P30" s="16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R30" s="15">
-        <v>8</v>
-      </c>
-      <c r="S30" s="16">
-        <v>42</v>
-      </c>
-      <c r="T30" s="14">
-        <v>21</v>
-      </c>
-      <c r="U30" s="15">
         <v>9</v>
       </c>
-      <c r="V30" s="16">
+      <c r="S30" s="14">
         <v>9</v>
       </c>
-      <c r="W30" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -3031,41 +2659,29 @@
       <c r="N31" s="9">
         <v>821</v>
       </c>
-      <c r="O31" s="9">
-        <v>62.2</v>
+      <c r="O31" s="8">
+        <v>23590</v>
       </c>
       <c r="P31" s="9">
-        <v>542</v>
+        <v>124498</v>
       </c>
       <c r="Q31" s="17">
-        <v>27</v>
+        <v>70748</v>
       </c>
       <c r="R31" s="8">
-        <v>23590</v>
-      </c>
-      <c r="S31" s="9">
-        <v>124498</v>
-      </c>
-      <c r="T31" s="17">
-        <v>70748</v>
-      </c>
-      <c r="U31" s="8">
         <v>27495</v>
       </c>
-      <c r="V31" s="9">
+      <c r="S31" s="17">
         <v>24981</v>
-      </c>
-      <c r="W31" s="17">
-        <v>90.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://fbref.com/en/players/6f51e382/Marc-Andre-ter-Stegen" xr:uid="{49443EC9-3B8A-4D83-8AA8-7DA6C982EEDA}"/>
